--- a/models/table_c2.xlsx
+++ b/models/table_c2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">l_wy_sci_world         </t>
   </si>
   <si>
-    <t xml:space="preserve">l_wy_state_mdl         </t>
+    <t xml:space="preserve">l_wy_model             </t>
   </si>
   <si>
     <t xml:space="preserve">sy_sci_state    </t>
@@ -100,280 +100,286 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3890          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3350         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2165          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1083.0          </t>
+    <t xml:space="preserve">0.3856          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3823         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2097          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1071.3          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1557***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0204)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8086***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1746)        </t>
+    <t xml:space="preserve">0.1547***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0199)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8016***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1701)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3894          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3190         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2210          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.20          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1553***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0206)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8052***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1751)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0115          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0262)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0173         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0188)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6455          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7152          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6651          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">617.89          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1538***       </t>
+    <t xml:space="preserve">0.3859          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3672         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2134          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">357.08          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1544***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0201)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7986***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1708)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0067          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0294)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0149         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0182)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6465          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7084          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6650          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">622.95          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1536***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0071)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2759***       </t>
+    <t xml:space="preserve">0.2677***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0878)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0212         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0243)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0132         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0110)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1486*         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0902)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0215         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0235)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0151         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1418          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0931)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6433***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0583)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6759          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7783          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7007          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">589.40          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1505***       </t>
+    <t xml:space="preserve">0.6458***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0556)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6763          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7572          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7014          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">592.68          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1514***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0051)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0536          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0833)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0176         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0202)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0148         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0158)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0221          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0806)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5395***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0423)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3206***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0738)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6632          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8036          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6973          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">556.67          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1493***       </t>
+    <t xml:space="preserve">0.0455          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0815)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0177         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0215)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0130         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0151)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0316          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0796)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5422***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0408)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3208***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0740)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6646          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7973          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6981          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">562.01          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1494***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0061)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1590*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0837)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0200         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0228)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0201         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0701          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5897***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0503)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1881***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0421)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6622          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7538          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6864          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">554.15          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1681***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0080)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0652          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1012)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0290         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0197)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0042         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0140)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1089          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0788)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5487***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0572)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2964**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1157)        </t>
+    <t xml:space="preserve">0.1492*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0817)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0234)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0183         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0153)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0773          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0808)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5895***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0486)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1915***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0420)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6708          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7885          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">578.13          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1499***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0056)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0972          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0814)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0188         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0224)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0166         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0156)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0528          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0793)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5656***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0435)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2600***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0560)        </t>
   </si>
 </sst>
 </file>
@@ -872,7 +878,7 @@
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -895,7 +901,7 @@
         <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -918,7 +924,7 @@
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -941,7 +947,7 @@
         <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -964,7 +970,7 @@
         <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1010,7 +1016,7 @@
         <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1033,7 +1039,7 @@
         <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1056,7 +1062,7 @@
         <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1079,7 +1085,7 @@
         <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1102,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1125,7 +1131,7 @@
         <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1148,7 +1154,7 @@
         <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1168,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1191,10 +1197,10 @@
         <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1214,10 +1220,10 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1237,10 +1243,10 @@
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1260,10 +1266,10 @@
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1329,7 +1335,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -1352,7 +1358,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -1378,7 +1384,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1401,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_c2.xlsx
+++ b/models/table_c2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -100,286 +100,283 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">2132            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3856          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3823         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2097          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1071.3          </t>
+    <t xml:space="preserve">0.4523          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2431         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0782          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1739.5          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1547***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0199)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8016***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1701)        </t>
+    <t xml:space="preserve">0.1360***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0125)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0114***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1726)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3859          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3672         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2134          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">357.08          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1544***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0201)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7986***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1708)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0067          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0294)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0149         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0182)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6465          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7084          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6650          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">622.95          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1536***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0071)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2677***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0878)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0212         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0243)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0132         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0110)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1486*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0902)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6458***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0556)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6763          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7572          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7014          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">592.68          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1514***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0051)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0455          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0815)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0177         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0215)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0130         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0151)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0316          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0796)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5422***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0408)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3208***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0740)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6646          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7973          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6981          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">562.01          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1494***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0061)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1492*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0817)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0198         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0234)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0183         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0153)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0773          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0808)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5895***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0486)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1915***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0420)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6708          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7885          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7021          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">578.13          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1499***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0056)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0972          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0814)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0188         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0224)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0166         </t>
+    <t xml:space="preserve">0.4537          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2635         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0863          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">582.40          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1351***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0124)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0051***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1717)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0110          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0277)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0358*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0192)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6908          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5714          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6935          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">939.20          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1455***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0034)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2503***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0786)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0178         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0203)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0221*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2152***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0664)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6222***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0564)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7098          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7485          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7349          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">856.58          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1384***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0030)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0850          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0751)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0060         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0204)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0287**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0128)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0075          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0580)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5351***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0569)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3113***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0583)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7132          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7162          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7200          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">870.79          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1592***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0047)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0142         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0856)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0148         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0205)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0220         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0156)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0528          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0793)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5656***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0435)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2600***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0560)        </t>
+    <t xml:space="preserve">0.0170          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0818)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4845***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0522)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4320***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1003)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7152          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7030          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7192          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">879.57          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1474***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0031)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0029          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0800)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0081         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0202)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0266*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0142)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0285         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0697)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4927***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0540)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4328***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0825)        </t>
   </si>
 </sst>
 </file>
@@ -872,13 +869,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -895,13 +892,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -918,13 +915,13 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -941,13 +938,13 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -964,13 +961,13 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1010,13 +1007,13 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1033,13 +1030,13 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1056,13 +1053,13 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1079,13 +1076,13 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1102,13 +1099,13 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1125,13 +1122,13 @@
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1148,13 +1145,13 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1168,16 +1165,16 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1191,16 +1188,16 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1214,16 +1211,16 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1237,16 +1234,16 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1260,16 +1257,16 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1286,7 +1283,7 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1309,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1335,7 +1332,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -1358,7 +1355,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -1384,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1407,7 +1404,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
